--- a/CodeSystem-yes-no-unknown.xlsx
+++ b/CodeSystem-yes-no-unknown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T09:09:18+00:00</t>
+    <t>2024-04-10T09:46:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-yes-no-unknown.xlsx
+++ b/CodeSystem-yes-no-unknown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T09:46:51+00:00</t>
+    <t>2024-04-10T12:05:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Standard code system for yes, no, and unknown responses.</t>
+    <t>Code system for yes, no, and unknown responses.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/CodeSystem-yes-no-unknown.xlsx
+++ b/CodeSystem-yes-no-unknown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:05:41+00:00</t>
+    <t>2024-04-10T12:38:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-yes-no-unknown.xlsx
+++ b/CodeSystem-yes-no-unknown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:38:22+00:00</t>
+    <t>2024-04-10T12:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-yes-no-unknown.xlsx
+++ b/CodeSystem-yes-no-unknown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:47:47+00:00</t>
+    <t>2024-04-10T14:10:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-yes-no-unknown.xlsx
+++ b/CodeSystem-yes-no-unknown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T14:10:05+00:00</t>
+    <t>2024-04-10T14:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
